--- a/data/trans_orig/IP12_R1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419049BA-877B-43E6-BD97-D21CE2EC3993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD39C352-81CA-4FAA-A72B-5A141B02ECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55B08314-EA5D-4A97-A081-1DFB0AFF17CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B0EA560-99A9-458A-A140-4599D6502C47}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>95,94%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>97,93%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -122,16 +122,16 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -140,7 +140,7 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>3,93%</t>
@@ -149,10 +149,10 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>97,19%</t>
@@ -161,7 +161,7 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>97,72%</t>
@@ -170,7 +170,7 @@
     <t>96,07%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -179,55 +179,55 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -236,103 +236,103 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D7F4-B1C4-4182-BC39-0DE461BA0310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE787CF2-13B0-4067-BE8C-BCDE1ABAFE1E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
